--- a/数据整理/stocks/A股/上证主板/601966-玲珑轮胎.xlsx
+++ b/数据整理/stocks/A股/上证主板/601966-玲珑轮胎.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7469,4 +7470,1162 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2546</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0163</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4197</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>72.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>48.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4355</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>57.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3377</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8452</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4964</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8613</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8245</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4417</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4166</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3256</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2496</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>39.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162712</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发聚利债券(LOF) A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009156</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通富泽混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>48.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009157</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通富泽混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007235</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发聚利债券(LOF) C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601966-玲珑轮胎.xlsx
+++ b/数据整理/stocks/A股/上证主板/601966-玲珑轮胎.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8628,4 +8629,1770 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>155.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5369</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4838</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4703</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2739</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4972</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3752</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3752</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2355</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0888</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9367</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6692</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6136</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6136</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5490</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4937</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>76.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601966-玲珑轮胎.xlsx
+++ b/数据整理/stocks/A股/上证主板/601966-玲珑轮胎.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10395,4 +10396,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601966-玲珑轮胎.xlsx
+++ b/数据整理/stocks/A股/上证主板/601966-玲珑轮胎.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10404,7 +10405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10415,17 +10416,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10435,14 +10456,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.81</v>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2422</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -10451,14 +10494,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.9</v>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7993</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -10467,14 +10532,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29.74</v>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5874</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -10483,13 +10570,1177 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9479</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>73.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7912</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1926</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9753</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9652</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5574</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4673</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4119</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3891</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>42.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>82</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>18.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601966-玲珑轮胎.xlsx
+++ b/数据整理/stocks/A股/上证主板/601966-玲珑轮胎.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11639,7 +11640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11650,17 +11651,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11670,14 +11691,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.14</v>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -11686,14 +11729,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>45</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.81</v>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9451</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -11702,14 +11767,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.9</v>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9392</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -11718,14 +11805,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29.74</v>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5893</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -11734,13 +11843,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5252</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3999</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>57.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>57.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>57.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.119999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>82</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>18.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601966-玲珑轮胎.xlsx
+++ b/数据整理/stocks/A股/上证主板/601966-玲珑轮胎.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12304,7 +12305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12315,17 +12316,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12335,14 +12356,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.119999999999999</v>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -12351,14 +12394,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.14</v>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9366</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -12367,14 +12432,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>45</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29.81</v>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7814</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -12383,14 +12470,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.9</v>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0196</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -12399,14 +12508,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>29.74</v>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9136</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -12415,13 +12546,1435 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3958</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3718</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2936</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008547</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博道安远6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012628</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.119999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29.74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>82</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>18.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601966-玲珑轮胎.xlsx
+++ b/数据整理/stocks/A股/上证主板/601966-玲珑轮胎.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>10.96</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>8.119999999999999</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>19.14</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>29.81</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
-        <v>27.9</v>
+        <v>29.81</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>29.74</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>29.74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>82</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>18.46</v>
       </c>
     </row>
@@ -600,6 +617,1008 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0606</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6287</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>35.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7515</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6368</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道盛彦混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013693</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博道盛兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014356</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信企业成长三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014357</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信企业成长三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>38.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012075</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达稳健添利混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012076</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达稳健添利混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012628</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道盛彦混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>38.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>016594</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>35.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2135,7 +3154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2799,7 +3818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4033,7 +5052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5799,7 +6818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6957,7 +7976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10813,7 +11832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601966-玲珑轮胎.xlsx
+++ b/数据整理/stocks/A股/上证主板/601966-玲珑轮胎.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>6.27</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>10.96</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>8.119999999999999</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>19.14</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>29.81</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>27.9</v>
+        <v>29.81</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>29.74</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,3200 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29.74</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>82</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>18.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7457</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8236</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4810</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9664</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8897</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8447</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000065</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富焦点驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7371</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5107</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4338</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4308</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3195</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000014</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏聚利债券</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方安泰混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2106</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>166010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧鼎利债券A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009519</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧鼎利债券E</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>72.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009520</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中欧鼎利债券C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3804,1466 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4214</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8308</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7193</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6166</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5729</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2806</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2611</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015652</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013693</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博道盛兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道盛彦混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010879</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方宝升混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015387</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015572</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010880</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方宝升混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015388</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012628</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博道盛彦混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1618,7 +6265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3154,7 +7801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3818,7 +8465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5052,7 +9699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6818,7 +11465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7976,7 +12623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11830,3174 +16477,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H83"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>450002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国富弹性市值混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>65.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.7457</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>450009</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国富中小盘股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>36.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.8236</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008515</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富兰克林国海基本面优选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4810</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>270021</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发聚瑞混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9664</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001300</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成睿景灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8897</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>360006</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>光大保德信新增长混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20.16</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.16</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8447</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000065</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国富焦点驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.86</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>25.30</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7371</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001740</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.58</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5107</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001301</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成睿景灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4338</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>090018</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成新锐产业混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4308</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003986</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数优选增强A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>14.20</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3195</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000014</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华夏聚利债券</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>27.65</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2570</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>320011</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>诺安中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>85.87</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2492</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003161</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>南方安泰混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>24.33</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>21.81</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2336</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006972</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>金鹰民安回报一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>14.65</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>36.57</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2212</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008313</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>光大保德信研究精选混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.75</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2111</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001521</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国寿安保成长优选股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2106</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008234</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>光大保德信消费主题股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1759</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>673060</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>87.51</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1579</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>000594</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>大摩进取优选股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1528</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>450004</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>国富深化价值混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>84.85</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1505</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008009</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华商高端装备制造股票</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.13</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1407</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005062</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8.11</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1249</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007415</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>南方致远混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>12.32</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>23.78</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1121</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>161611</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>融通内需驱动混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>86.42</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1095</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>166010</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中欧鼎利债券A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>11.42</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>20.08</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1062</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009519</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中欧鼎利债券E</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>11.42</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>20.08</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1062</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006429</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>诺安恒鑫混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0917</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001528</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>诺安先进制造股票</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.11</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0917</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>450010</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>国富策略回报混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>79.46</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0878</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>320015</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>诺安行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0846</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001046</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华夏可转债增强债券I</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>41.59</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0779</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>001045</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华夏可转债增强债券A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>41.59</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0779</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>000729</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>建信中小盘先锋股票</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>89.26</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0771</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>009258</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>87.51</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0762</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>590003</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>中邮核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>77.64</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0738</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>161222</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>81.50</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0626</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>350005</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>天治中国制造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>91.94</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0593</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>002871</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0564</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>001242</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0531</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>001243</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数I</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0531</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>121010</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>72.83</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0508</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>006593</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>博道中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0478</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>005444</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>51.25</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0365</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>004945</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>长信中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0345</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>001266</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>国投瑞银招财灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>84.06</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0290</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>512040</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>富国中证价值ETF</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>002296</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>长城行业轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0253</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>007735</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>金鹰民安回报一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>36.57</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>001613</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>长城久祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>86.81</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>008082</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>国寿安保研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>91.26</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>006594</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>博道中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0205</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>007593</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0182</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>007416</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>南方致远混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>23.78</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>003241</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>创金合信量化发现灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>85.69</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>004135</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>申万菱信量化成长混合</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>007594</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>005795</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>010026</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>广发聚瑞混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>350008</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>天治新消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>001154</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>北信瑞丰平安中国主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>84.99</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>004192</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>007084</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>天治转型升级混合</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>007794</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数优选增强C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>006783</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>162107</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>金鹰量化精选股票（LOF）</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>519034</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>009520</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>中欧鼎利债券C</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>20.08</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>000892</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>九泰天宝灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>000804</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>中信建投稳利混合A</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>515510</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>嘉实中证500成长估值ETF</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>98.59</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>004193</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>008083</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>国寿安保研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>91.26</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>003242</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>创金合信量化发现灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>85.69</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>515590</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>前海开源中证500等权重ETF</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>92.59</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>006844</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>中信建投稳利混合C</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>004790</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>006784</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>002872</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票C</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>004791</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>009004</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>002028</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>九泰天宝灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>